--- a/ScrapedInvoiceData.xlsx
+++ b/ScrapedInvoiceData.xlsx
@@ -1,71 +1,2341 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+  <x:si>
+    <x:t>Company Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer ID:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dynazzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">279
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2170
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 725,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yakidoo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">609
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">650,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Jamia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">97
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5536
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">925,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mydo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">570
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2223
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">675,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tagopia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">907
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3441
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 825,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fliptune
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">346
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6155
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 475,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mydeo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">618
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2243
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 200,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feednation
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">552
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6306
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 500,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Topicstorm
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">306
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2535
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 150,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">888
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8380
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 100,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Riffwire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">189
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6014
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 550,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rhyzio
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">386
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7054
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">950,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Zoozzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">638
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5366
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 350,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plambee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">696
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 175,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tazz
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">469
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9541
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 150,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yamia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">741
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3326
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 675,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Babbleblab
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">296
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8649
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 325,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Youbridge
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">702
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7771
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 175,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fivechat
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">280
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9270
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 250,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quinu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">704
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8463
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 375,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Oyope
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">298
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5126
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 075,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Aimbu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">391
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1809
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Meeveo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">413
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8314
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Muxo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">200
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1934
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">228
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9408
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 050,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dabvine
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">697
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2323
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">825,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Npath
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">754
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4388
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 850,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Edgeclub
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">432
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3876
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 900,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tambee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4410
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 250,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Twitterworks
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">458
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4089
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">475,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Blognation
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">919
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5177
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Devify
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">803
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6811
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Skynoodle
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">82
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8156
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">company name
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">955
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6375
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 050,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Devpoint
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">705
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7442
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Brightbean
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">929
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6530
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">700,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quatz
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">273
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1617
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gigazoom
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">260
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6093
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">350,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">567
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4602
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">575,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">563
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9774
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 750,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">259
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3535
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yodoo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">726
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5820
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 425,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rhybox
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">487
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5209
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 000,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DabZ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">532
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3172
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yacero
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">867
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8286
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ailane
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4157
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kimia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">854
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3504
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 600,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ozu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">636
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4745
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">425,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Roombo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">69
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3508
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 025,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Pixonyx
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">635
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3163
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">765
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4790
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">875,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Jabbersphere
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">455
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6939
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">349
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2470
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 400,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dynabox
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9136
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feedfire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">871
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7088
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8646
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Eadel
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">488
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1051
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 950,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yodel
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">840
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3403
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">244
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9427
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">553
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1909
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 450,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Talane
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">398
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4412
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Topdrive
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">780
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9399
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">971
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6602
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Skipfire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7819
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 875,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">999
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3875
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Viva
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">518
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7030
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">900,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Jaxspan
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">190
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6695
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">625,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Oba
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">735
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1796
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Skivee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">80
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4753
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Geba
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">620
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2799
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 025,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">384
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6957
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wikivu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">323
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8843
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">850,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gabvine
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">837
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7971
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3343
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gabtune
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">464
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5417
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quimm
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">862
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9392
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Meevee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">645
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7353
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cogilith
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">576
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6046
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lazzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">831
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2053
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Avamm
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6207
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Roomm
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">233
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4525
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 275,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Katz
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">891
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4913
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">14
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6016
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dabtype
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">829
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1077
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 525,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kazu
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">737
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1161
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quamba
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">512
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2700
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 125,00 
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="362">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2600,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D63" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D64" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D65" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D66" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D68" s="2" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="2" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D69" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D70" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D71" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D72" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D73" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D74" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C75" s="2" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D75" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D76" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C77" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D77" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C78" s="2" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D78" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="D79" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D80" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="2" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="D81" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C82" s="2" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="D82" s="2" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="2" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C83" s="2" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="D83" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C84" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="D84" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="2" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C85" s="2" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="D85" s="2" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="2" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C86" s="2" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="D86" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="A87" s="2" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C87" s="2" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="D87" s="2" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>